--- a/BookDonation.xlsx
+++ b/BookDonation.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -488,6 +488,23 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pou</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cg</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>123654</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/BookDonation.xlsx
+++ b/BookDonation.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -505,6 +505,11 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
